--- a/data/excel/cpi2006.xlsx
+++ b/data/excel/cpi2006.xlsx
@@ -12,7 +12,7 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="cpi2006" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="167">
   <si>
     <t>Finland</t>
   </si>
@@ -522,6 +522,9 @@
   </si>
   <si>
     <t>CPI</t>
+  </si>
+  <si>
+    <t>Year</t>
   </si>
 </sst>
 </file>
@@ -839,15 +842,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C164"/>
+  <dimension ref="A1:D164"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" topLeftCell="A144" workbookViewId="0">
+      <selection activeCell="B154" sqref="B154"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>163</v>
       </c>
@@ -857,8 +860,11 @@
       <c r="C1" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D1" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -868,8 +874,11 @@
       <c r="C2">
         <v>9.6</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D2">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -879,8 +888,11 @@
       <c r="C3">
         <v>9.6</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D3">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1</v>
       </c>
@@ -890,8 +902,11 @@
       <c r="C4">
         <v>9.6</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D4">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -901,8 +916,11 @@
       <c r="C5">
         <v>9.5</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D5">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -912,8 +930,11 @@
       <c r="C6">
         <v>9.4</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D6">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -923,8 +944,11 @@
       <c r="C7">
         <v>9.1999999999999993</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D7">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -934,8 +958,11 @@
       <c r="C8">
         <v>9.1</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D8">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -945,8 +972,11 @@
       <c r="C9">
         <v>8.8000000000000007</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D9">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -956,8 +986,11 @@
       <c r="C10">
         <v>8.6999999999999993</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D10">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>9</v>
       </c>
@@ -967,8 +1000,11 @@
       <c r="C11">
         <v>8.6999999999999993</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D11">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -978,8 +1014,11 @@
       <c r="C12">
         <v>8.6</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D12">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>11</v>
       </c>
@@ -989,8 +1028,11 @@
       <c r="C13">
         <v>8.6</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D13">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>11</v>
       </c>
@@ -1000,8 +1042,11 @@
       <c r="C14">
         <v>8.6</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D14">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1011,8 +1056,11 @@
       <c r="C15">
         <v>8.5</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D15">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1022,8 +1070,11 @@
       <c r="C16">
         <v>8.3000000000000007</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D16">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1033,8 +1084,11 @@
       <c r="C17">
         <v>8</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D17">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1044,8 +1098,11 @@
       <c r="C18">
         <v>7.6</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D18">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -1055,8 +1112,11 @@
       <c r="C19">
         <v>7.4</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D19">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>18</v>
       </c>
@@ -1066,8 +1126,11 @@
       <c r="C20">
         <v>7.4</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D20">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
@@ -1077,8 +1140,11 @@
       <c r="C21">
         <v>7.3</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D21">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>20</v>
       </c>
@@ -1088,8 +1154,11 @@
       <c r="C22">
         <v>7.3</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D22">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>20</v>
       </c>
@@ -1099,8 +1168,11 @@
       <c r="C23">
         <v>7.3</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D23">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
@@ -1110,8 +1182,11 @@
       <c r="C24">
         <v>6.8</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D24">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
@@ -1121,8 +1196,11 @@
       <c r="C25">
         <v>6.7</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D25">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>24</v>
       </c>
@@ -1132,8 +1210,11 @@
       <c r="C26">
         <v>6.7</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D26">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
@@ -1143,8 +1224,11 @@
       <c r="C27">
         <v>6.6</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D27">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>26</v>
       </c>
@@ -1154,8 +1238,11 @@
       <c r="C28">
         <v>6.6</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D28">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
@@ -1165,8 +1252,11 @@
       <c r="C29">
         <v>6.4</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D29">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>28</v>
       </c>
@@ -1176,8 +1266,11 @@
       <c r="C30">
         <v>6.4</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D30">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>28</v>
       </c>
@@ -1187,8 +1280,11 @@
       <c r="C31">
         <v>6.4</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D31">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>31</v>
       </c>
@@ -1198,8 +1294,11 @@
       <c r="C32">
         <v>6.2</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D32">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>32</v>
       </c>
@@ -1209,8 +1308,11 @@
       <c r="C33">
         <v>6</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D33">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>32</v>
       </c>
@@ -1220,8 +1322,11 @@
       <c r="C34">
         <v>6</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D34">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>34</v>
       </c>
@@ -1231,8 +1336,11 @@
       <c r="C35">
         <v>5.9</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D35">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>34</v>
       </c>
@@ -1242,8 +1350,11 @@
       <c r="C36">
         <v>5.9</v>
       </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D36">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>36</v>
       </c>
@@ -1253,8 +1364,11 @@
       <c r="C37">
         <v>5.7</v>
       </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D37">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>37</v>
       </c>
@@ -1264,8 +1378,11 @@
       <c r="C38">
         <v>5.6</v>
       </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D38">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>37</v>
       </c>
@@ -1275,8 +1392,11 @@
       <c r="C39">
         <v>5.6</v>
       </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D39">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>39</v>
       </c>
@@ -1286,8 +1406,11 @@
       <c r="C40">
         <v>5.4</v>
       </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D40">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>40</v>
       </c>
@@ -1297,8 +1420,11 @@
       <c r="C41">
         <v>5.3</v>
       </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D41">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>41</v>
       </c>
@@ -1308,8 +1434,11 @@
       <c r="C42">
         <v>5.2</v>
       </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D42">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>42</v>
       </c>
@@ -1319,8 +1448,11 @@
       <c r="C43">
         <v>5.0999999999999996</v>
       </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D43">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>42</v>
       </c>
@@ -1330,8 +1462,11 @@
       <c r="C44">
         <v>5.0999999999999996</v>
       </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D44">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>44</v>
       </c>
@@ -1341,8 +1476,11 @@
       <c r="C45">
         <v>5</v>
       </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D45">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>45</v>
       </c>
@@ -1352,8 +1490,11 @@
       <c r="C46">
         <v>4.9000000000000004</v>
       </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D46">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>46</v>
       </c>
@@ -1363,8 +1504,11 @@
       <c r="C47">
         <v>4.8</v>
       </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D47">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>46</v>
       </c>
@@ -1374,8 +1518,11 @@
       <c r="C48">
         <v>4.8</v>
       </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D48">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>46</v>
       </c>
@@ -1385,8 +1532,11 @@
       <c r="C49">
         <v>4.8</v>
       </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D49">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>49</v>
       </c>
@@ -1396,8 +1546,11 @@
       <c r="C50">
         <v>4.7</v>
       </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D50">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>49</v>
       </c>
@@ -1407,8 +1560,11 @@
       <c r="C51">
         <v>4.7</v>
       </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D51">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>51</v>
       </c>
@@ -1418,8 +1574,11 @@
       <c r="C52">
         <v>4.5999999999999996</v>
       </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D52">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>51</v>
       </c>
@@ -1429,8 +1588,11 @@
       <c r="C53">
         <v>4.5999999999999996</v>
       </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D53">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>53</v>
       </c>
@@ -1440,8 +1602,11 @@
       <c r="C54">
         <v>4.5</v>
       </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D54">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>54</v>
       </c>
@@ -1451,8 +1616,11 @@
       <c r="C55">
         <v>4.4000000000000004</v>
       </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D55">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>55</v>
       </c>
@@ -1462,8 +1630,11 @@
       <c r="C56">
         <v>4.0999999999999996</v>
       </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D56">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>55</v>
       </c>
@@ -1473,8 +1644,11 @@
       <c r="C57">
         <v>4.0999999999999996</v>
       </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D57">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>57</v>
       </c>
@@ -1484,8 +1658,11 @@
       <c r="C58">
         <v>4</v>
       </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D58">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>57</v>
       </c>
@@ -1495,8 +1672,11 @@
       <c r="C59">
         <v>4</v>
       </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D59">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>59</v>
       </c>
@@ -1506,8 +1686,11 @@
       <c r="C60">
         <v>3.9</v>
       </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D60">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>60</v>
       </c>
@@ -1517,8 +1700,11 @@
       <c r="C61">
         <v>3.8</v>
       </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D61">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>61</v>
       </c>
@@ -1528,8 +1714,11 @@
       <c r="C62">
         <v>3.7</v>
       </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D62">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>61</v>
       </c>
@@ -1539,8 +1728,11 @@
       <c r="C63">
         <v>3.7</v>
       </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D63">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>63</v>
       </c>
@@ -1550,8 +1742,11 @@
       <c r="C64">
         <v>3.6</v>
       </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D64">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>63</v>
       </c>
@@ -1561,8 +1756,11 @@
       <c r="C65">
         <v>3.6</v>
       </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D65">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>63</v>
       </c>
@@ -1572,8 +1770,11 @@
       <c r="C66">
         <v>3.6</v>
       </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D66">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>66</v>
       </c>
@@ -1583,8 +1784,11 @@
       <c r="C67">
         <v>3.5</v>
       </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D67">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>66</v>
       </c>
@@ -1594,8 +1798,11 @@
       <c r="C68">
         <v>3.5</v>
       </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D68">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>66</v>
       </c>
@@ -1605,8 +1812,11 @@
       <c r="C69">
         <v>3.5</v>
       </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D69">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>69</v>
       </c>
@@ -1616,8 +1826,11 @@
       <c r="C70">
         <v>3.4</v>
       </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D70">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>70</v>
       </c>
@@ -1627,8 +1840,11 @@
       <c r="C71">
         <v>3.3</v>
       </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D71">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>70</v>
       </c>
@@ -1638,8 +1854,11 @@
       <c r="C72">
         <v>3.3</v>
       </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D72">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>70</v>
       </c>
@@ -1649,8 +1868,11 @@
       <c r="C73">
         <v>3.3</v>
       </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D73">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>70</v>
       </c>
@@ -1660,8 +1882,11 @@
       <c r="C74">
         <v>3.3</v>
       </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D74">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>70</v>
       </c>
@@ -1671,8 +1896,11 @@
       <c r="C75">
         <v>3.3</v>
       </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D75">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>70</v>
       </c>
@@ -1682,8 +1910,11 @@
       <c r="C76">
         <v>3.3</v>
       </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D76">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>70</v>
       </c>
@@ -1693,8 +1924,11 @@
       <c r="C77">
         <v>3.3</v>
       </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D77">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>70</v>
       </c>
@@ -1704,8 +1938,11 @@
       <c r="C78">
         <v>3.3</v>
       </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D78">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>70</v>
       </c>
@@ -1715,8 +1952,11 @@
       <c r="C79">
         <v>3.3</v>
       </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D79">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>79</v>
       </c>
@@ -1726,8 +1966,11 @@
       <c r="C80">
         <v>3.2</v>
       </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D80">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>79</v>
       </c>
@@ -1737,8 +1980,11 @@
       <c r="C81">
         <v>3.2</v>
       </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D81">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>79</v>
       </c>
@@ -1748,8 +1994,11 @@
       <c r="C82">
         <v>3.2</v>
       </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D82">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>79</v>
       </c>
@@ -1759,8 +2008,11 @@
       <c r="C83">
         <v>3.2</v>
       </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D83">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>79</v>
       </c>
@@ -1770,8 +2022,11 @@
       <c r="C84">
         <v>3.2</v>
       </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D84">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>84</v>
       </c>
@@ -1781,8 +2036,11 @@
       <c r="C85">
         <v>3.1</v>
       </c>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D85">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>84</v>
       </c>
@@ -1792,8 +2050,11 @@
       <c r="C86">
         <v>3.1</v>
       </c>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D86">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>84</v>
       </c>
@@ -1803,8 +2064,11 @@
       <c r="C87">
         <v>3.1</v>
       </c>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D87">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>84</v>
       </c>
@@ -1814,8 +2078,11 @@
       <c r="C88">
         <v>3.1</v>
       </c>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D88">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>84</v>
       </c>
@@ -1825,8 +2092,11 @@
       <c r="C89">
         <v>3.1</v>
       </c>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D89">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>84</v>
       </c>
@@ -1836,8 +2106,11 @@
       <c r="C90">
         <v>3.1</v>
       </c>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D90">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>90</v>
       </c>
@@ -1847,8 +2120,11 @@
       <c r="C91">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D91">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>90</v>
       </c>
@@ -1858,8 +2134,11 @@
       <c r="C92">
         <v>3</v>
       </c>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D92">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>90</v>
       </c>
@@ -1869,8 +2148,11 @@
       <c r="C93">
         <v>3</v>
       </c>
-    </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D93">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>93</v>
       </c>
@@ -1880,8 +2162,11 @@
       <c r="C94">
         <v>2.9</v>
       </c>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D94">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>93</v>
       </c>
@@ -1891,8 +2176,11 @@
       <c r="C95">
         <v>2.9</v>
       </c>
-    </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D95">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>93</v>
       </c>
@@ -1902,8 +2190,11 @@
       <c r="C96">
         <v>2.9</v>
       </c>
-    </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D96">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>93</v>
       </c>
@@ -1913,8 +2204,11 @@
       <c r="C97">
         <v>2.9</v>
       </c>
-    </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D97">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>93</v>
       </c>
@@ -1924,8 +2218,11 @@
       <c r="C98">
         <v>2.9</v>
       </c>
-    </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D98">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>93</v>
       </c>
@@ -1935,8 +2232,11 @@
       <c r="C99">
         <v>2.9</v>
       </c>
-    </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D99">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>99</v>
       </c>
@@ -1946,8 +2246,11 @@
       <c r="C100">
         <v>2.8</v>
       </c>
-    </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D100">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>99</v>
       </c>
@@ -1957,8 +2260,11 @@
       <c r="C101">
         <v>2.8</v>
       </c>
-    </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D101">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>99</v>
       </c>
@@ -1968,8 +2274,11 @@
       <c r="C102">
         <v>2.8</v>
       </c>
-    </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D102">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>99</v>
       </c>
@@ -1979,8 +2288,11 @@
       <c r="C103">
         <v>2.8</v>
       </c>
-    </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D103">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>99</v>
       </c>
@@ -1990,8 +2302,11 @@
       <c r="C104">
         <v>2.8</v>
       </c>
-    </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D104">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>99</v>
       </c>
@@ -2001,8 +2316,11 @@
       <c r="C105">
         <v>2.8</v>
       </c>
-    </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D105">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>105</v>
       </c>
@@ -2012,8 +2330,11 @@
       <c r="C106">
         <v>2.7</v>
       </c>
-    </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D106">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>105</v>
       </c>
@@ -2023,8 +2344,11 @@
       <c r="C107">
         <v>2.7</v>
       </c>
-    </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D107">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>105</v>
       </c>
@@ -2034,8 +2358,11 @@
       <c r="C108">
         <v>2.7</v>
       </c>
-    </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D108">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>105</v>
       </c>
@@ -2045,8 +2372,11 @@
       <c r="C109">
         <v>2.7</v>
       </c>
-    </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D109">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>105</v>
       </c>
@@ -2056,8 +2386,11 @@
       <c r="C110">
         <v>2.7</v>
       </c>
-    </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D110">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>105</v>
       </c>
@@ -2067,8 +2400,11 @@
       <c r="C111">
         <v>2.7</v>
       </c>
-    </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D111">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>111</v>
       </c>
@@ -2078,8 +2414,11 @@
       <c r="C112">
         <v>2.6</v>
       </c>
-    </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D112">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>111</v>
       </c>
@@ -2089,8 +2428,11 @@
       <c r="C113">
         <v>2.6</v>
       </c>
-    </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D113">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>111</v>
       </c>
@@ -2100,8 +2442,11 @@
       <c r="C114">
         <v>2.6</v>
       </c>
-    </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D114">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>111</v>
       </c>
@@ -2111,8 +2456,11 @@
       <c r="C115">
         <v>2.6</v>
       </c>
-    </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D115">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>111</v>
       </c>
@@ -2122,8 +2470,11 @@
       <c r="C116">
         <v>2.6</v>
       </c>
-    </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D116">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>111</v>
       </c>
@@ -2133,8 +2484,11 @@
       <c r="C117">
         <v>2.6</v>
       </c>
-    </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D117">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>111</v>
       </c>
@@ -2144,8 +2498,11 @@
       <c r="C118">
         <v>2.6</v>
       </c>
-    </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D118">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>111</v>
       </c>
@@ -2155,8 +2512,11 @@
       <c r="C119">
         <v>2.6</v>
       </c>
-    </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D119">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>111</v>
       </c>
@@ -2166,8 +2526,11 @@
       <c r="C120">
         <v>2.6</v>
       </c>
-    </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D120">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>111</v>
       </c>
@@ -2177,8 +2540,11 @@
       <c r="C121">
         <v>2.6</v>
       </c>
-    </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D121">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>121</v>
       </c>
@@ -2188,8 +2554,11 @@
       <c r="C122">
         <v>2.5</v>
       </c>
-    </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D122">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>121</v>
       </c>
@@ -2199,8 +2568,11 @@
       <c r="C123">
         <v>2.5</v>
       </c>
-    </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D123">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>121</v>
       </c>
@@ -2210,8 +2582,11 @@
       <c r="C124">
         <v>2.5</v>
       </c>
-    </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D124">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>121</v>
       </c>
@@ -2221,8 +2596,11 @@
       <c r="C125">
         <v>2.5</v>
       </c>
-    </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D125">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>121</v>
       </c>
@@ -2232,8 +2610,11 @@
       <c r="C126">
         <v>2.5</v>
       </c>
-    </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D126">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>121</v>
       </c>
@@ -2243,8 +2624,11 @@
       <c r="C127">
         <v>2.5</v>
       </c>
-    </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D127">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>121</v>
       </c>
@@ -2254,8 +2638,11 @@
       <c r="C128">
         <v>2.5</v>
       </c>
-    </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D128">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>121</v>
       </c>
@@ -2265,8 +2652,11 @@
       <c r="C129">
         <v>2.5</v>
       </c>
-    </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D129">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>121</v>
       </c>
@@ -2276,8 +2666,11 @@
       <c r="C130">
         <v>2.5</v>
       </c>
-    </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D130">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>130</v>
       </c>
@@ -2287,8 +2680,11 @@
       <c r="C131">
         <v>2.4</v>
       </c>
-    </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D131">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>130</v>
       </c>
@@ -2298,8 +2694,11 @@
       <c r="C132">
         <v>2.4</v>
       </c>
-    </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D132">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>130</v>
       </c>
@@ -2309,8 +2708,11 @@
       <c r="C133">
         <v>2.4</v>
       </c>
-    </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D133">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>130</v>
       </c>
@@ -2320,8 +2722,11 @@
       <c r="C134">
         <v>2.4</v>
       </c>
-    </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D134">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>130</v>
       </c>
@@ -2331,8 +2736,11 @@
       <c r="C135">
         <v>2.4</v>
       </c>
-    </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D135">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>130</v>
       </c>
@@ -2342,8 +2750,11 @@
       <c r="C136">
         <v>2.4</v>
       </c>
-    </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D136">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>130</v>
       </c>
@@ -2353,8 +2764,11 @@
       <c r="C137">
         <v>2.4</v>
       </c>
-    </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D137">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>130</v>
       </c>
@@ -2364,8 +2778,11 @@
       <c r="C138">
         <v>2.4</v>
       </c>
-    </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D138">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>138</v>
       </c>
@@ -2375,8 +2792,11 @@
       <c r="C139">
         <v>2.2999999999999998</v>
       </c>
-    </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D139">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>138</v>
       </c>
@@ -2386,8 +2806,11 @@
       <c r="C140">
         <v>2.2999999999999998</v>
       </c>
-    </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D140">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>138</v>
       </c>
@@ -2397,8 +2820,11 @@
       <c r="C141">
         <v>2.2999999999999998</v>
       </c>
-    </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D141">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>138</v>
       </c>
@@ -2408,8 +2834,11 @@
       <c r="C142">
         <v>2.2999999999999998</v>
       </c>
-    </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D142">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>142</v>
       </c>
@@ -2419,8 +2848,11 @@
       <c r="C143">
         <v>2.2000000000000002</v>
       </c>
-    </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D143">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>142</v>
       </c>
@@ -2430,8 +2862,11 @@
       <c r="C144">
         <v>2.2000000000000002</v>
       </c>
-    </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D144">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>142</v>
       </c>
@@ -2441,8 +2876,11 @@
       <c r="C145">
         <v>2.2000000000000002</v>
       </c>
-    </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D145">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>142</v>
       </c>
@@ -2452,8 +2890,11 @@
       <c r="C146">
         <v>2.2000000000000002</v>
       </c>
-    </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D146">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>142</v>
       </c>
@@ -2463,8 +2904,11 @@
       <c r="C147">
         <v>2.2000000000000002</v>
       </c>
-    </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D147">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>142</v>
       </c>
@@ -2474,8 +2918,11 @@
       <c r="C148">
         <v>2.2000000000000002</v>
       </c>
-    </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D148">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>142</v>
       </c>
@@ -2485,8 +2932,11 @@
       <c r="C149">
         <v>2.2000000000000002</v>
       </c>
-    </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D149">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>142</v>
       </c>
@@ -2496,8 +2946,11 @@
       <c r="C150">
         <v>2.2000000000000002</v>
       </c>
-    </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D150">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>142</v>
       </c>
@@ -2507,8 +2960,11 @@
       <c r="C151">
         <v>2.2000000000000002</v>
       </c>
-    </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D151">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>151</v>
       </c>
@@ -2518,8 +2974,11 @@
       <c r="C152">
         <v>2.1</v>
       </c>
-    </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D152">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>151</v>
       </c>
@@ -2529,8 +2988,11 @@
       <c r="C153">
         <v>2.1</v>
       </c>
-    </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D153">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>151</v>
       </c>
@@ -2540,8 +3002,11 @@
       <c r="C154">
         <v>2.1</v>
       </c>
-    </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D154">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>151</v>
       </c>
@@ -2551,8 +3016,11 @@
       <c r="C155">
         <v>2.1</v>
       </c>
-    </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D155">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>151</v>
       </c>
@@ -2562,8 +3030,11 @@
       <c r="C156">
         <v>2.1</v>
       </c>
-    </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D156">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>156</v>
       </c>
@@ -2573,8 +3044,11 @@
       <c r="C157">
         <v>2</v>
       </c>
-    </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D157">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>156</v>
       </c>
@@ -2584,8 +3058,11 @@
       <c r="C158">
         <v>2</v>
       </c>
-    </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D158">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A159">
         <v>156</v>
       </c>
@@ -2595,8 +3072,11 @@
       <c r="C159">
         <v>2</v>
       </c>
-    </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D159">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A160">
         <v>156</v>
       </c>
@@ -2606,8 +3086,11 @@
       <c r="C160">
         <v>2</v>
       </c>
-    </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D160">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A161">
         <v>160</v>
       </c>
@@ -2617,8 +3100,11 @@
       <c r="C161">
         <v>1.9</v>
       </c>
-    </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D161">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A162">
         <v>160</v>
       </c>
@@ -2628,8 +3114,11 @@
       <c r="C162">
         <v>1.9</v>
       </c>
-    </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D162">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A163">
         <v>160</v>
       </c>
@@ -2639,8 +3128,11 @@
       <c r="C163">
         <v>1.9</v>
       </c>
-    </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D163">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A164">
         <v>163</v>
       </c>
@@ -2649,6 +3141,9 @@
       </c>
       <c r="C164">
         <v>1.8</v>
+      </c>
+      <c r="D164">
+        <v>2006</v>
       </c>
     </row>
   </sheetData>
